--- a/biology/Botanique/Utriculaire_mineure/Utriculaire_mineure.xlsx
+++ b/biology/Botanique/Utriculaire_mineure/Utriculaire_mineure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Utricularia minor, la petite utriculaire, est une espèce végétale de la famille des Lentibulariaceae. C'est une plante carnivore aquatique qui vit dans les zones humides.
 Ses pièges à petits invertébrés, les utricules, peuvent être portés aussi bien par des rameaux chlorophylliens que non chlorophylliens. Les fleurs, de petite taille, sont jaune pâle et portent un court éperon conique.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite utriculaire est une plante vivace présentant des feuilles courtes, ovales ou arrondies dans leur pourtour, palmatiséquées, munies de vésicules très petites. Elle présente de deux à quatre fleurs jaune pâle par grappe, un calice à lobes largement ovales, une corolle de 6 à7 mm à gorge ouverte et lèvre supérieure émarginée. L'éperon est court, réduit à une bosse obtuse.
 </t>
@@ -543,9 +557,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la retrouve principalement dans les landes et les marais tourbeux, dans des plans d'eau bien éclairés, tempérés. Le pH est principalement basique, pauvre en nutriment et riche en matière organique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la retrouve principalement dans les landes et les marais tourbeux, dans des plans d'eau bien éclairés, tempérés. Le pH est principalement basique, pauvre en nutriment et riche en matière organique.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Phytosociologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le code Catminat de ce taxon est 03/3.0.1.0.1
 Il est caractéristique du syntaxon de niveau « alliance » présenté dans le tableau ci-dessous avec ses niveaux supérieurs.
